--- a/b5/example.xlsx
+++ b/b5/example.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justk\Documents\KNOU-DATA-PROCESSING-AND-UTILIZATION\b5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451A1F8-9CF0-4676-9BF1-9F891C258814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E135E5D-4923-4C8C-A776-FCE27F1CFA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41475" yWindow="3075" windowWidth="38700" windowHeight="15435" xr2:uid="{6D36B5ED-4C60-416A-9619-E0C6C0C4023C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6D36B5ED-4C60-416A-9619-E0C6C0C4023C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AD36ED-8A11-4768-92BB-DE5AC17FA7B4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/b5/example.xlsx
+++ b/b5/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justk\Documents\KNOU-DATA-PROCESSING-AND-UTILIZATION\b5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E135E5D-4923-4C8C-A776-FCE27F1CFA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B289FB6C-BCFD-4D09-93D9-43D259318362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6D36B5ED-4C60-416A-9619-E0C6C0C4023C}"/>
+    <workbookView xWindow="-25950" yWindow="8175" windowWidth="38700" windowHeight="15435" xr2:uid="{6D36B5ED-4C60-416A-9619-E0C6C0C4023C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,14 +391,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AD36ED-8A11-4768-92BB-DE5AC17FA7B4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>-3</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>0.4</v>
+      </c>
+      <c r="E1">
+        <v>32</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
